--- a/src/predicciones/holt_winters/producto_61.xlsx
+++ b/src/predicciones/holt_winters/producto_61.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1001 +404,1001 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44936</v>
       </c>
       <c r="B2">
-        <v>1.993097038012405</v>
+        <v>2.011384227434545</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44945</v>
       </c>
       <c r="B3">
-        <v>1.030012432102589</v>
+        <v>1.011132058220098</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44949</v>
       </c>
       <c r="B4">
-        <v>2.011412661525692</v>
+        <v>2.011431734192424</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44952</v>
       </c>
       <c r="B5">
-        <v>2.01142600245551</v>
+        <v>2.011475239460005</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44953</v>
       </c>
       <c r="B6">
-        <v>1.011452451425799</v>
+        <v>1.011519213904509</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44956</v>
       </c>
       <c r="B7">
-        <v>1.992810637852729</v>
+        <v>2.011559222504956</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44965</v>
       </c>
       <c r="B8">
-        <v>1.022944393809275</v>
+        <v>1.022654662365582</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44969</v>
       </c>
       <c r="B9">
-        <v>2.004308874701272</v>
+        <v>2.022692191765025</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44970</v>
       </c>
       <c r="B10">
-        <v>1.041224268791455</v>
+        <v>1.022440022550579</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44973</v>
       </c>
       <c r="B11">
-        <v>2.022624498214558</v>
+        <v>2.022739698522905</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44976</v>
       </c>
       <c r="B12">
-        <v>2.022637839144377</v>
+        <v>2.022783203790485</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44981</v>
       </c>
       <c r="B13">
-        <v>1.022664288114665</v>
+        <v>1.02282717823499</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44986</v>
       </c>
       <c r="B14">
-        <v>2.004022474541595</v>
+        <v>2.022867186835438</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44990</v>
       </c>
       <c r="B15">
-        <v>1.034156230498142</v>
+        <v>1.033962626696063</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44992</v>
       </c>
       <c r="B16">
-        <v>2.015520711390138</v>
+        <v>2.034000156095507</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44993</v>
       </c>
       <c r="B17">
-        <v>1.052436105480322</v>
+        <v>1.03374798688106</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44994</v>
       </c>
       <c r="B18">
-        <v>2.033836334903425</v>
+        <v>2.034047662853386</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44999</v>
       </c>
       <c r="B19">
-        <v>2.033849675833244</v>
+        <v>2.034091168120967</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45000</v>
       </c>
       <c r="B20">
-        <v>1.033876124803532</v>
+        <v>1.034135142565471</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45001</v>
       </c>
       <c r="B21">
-        <v>2.015234311230462</v>
+        <v>2.034175151165918</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45003</v>
       </c>
       <c r="B22">
-        <v>1.045368067187009</v>
+        <v>1.045270591026544</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45009</v>
       </c>
       <c r="B23">
-        <v>2.026732548079005</v>
+        <v>2.045308120425988</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45010</v>
       </c>
       <c r="B24">
-        <v>1.063647942169188</v>
+        <v>1.045055951211541</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45011</v>
       </c>
       <c r="B25">
-        <v>2.045048171592292</v>
+        <v>2.045355627183867</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45013</v>
       </c>
       <c r="B26">
-        <v>2.04506151252211</v>
+        <v>2.045399132451448</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45014</v>
       </c>
       <c r="B27">
-        <v>1.045087961492399</v>
+        <v>1.045443106895953</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45018</v>
       </c>
       <c r="B28">
-        <v>2.026446147919329</v>
+        <v>2.045483115496399</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45032</v>
       </c>
       <c r="B29">
-        <v>1.056579903875875</v>
+        <v>1.056578555357025</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45033</v>
       </c>
       <c r="B30">
-        <v>2.037944384767872</v>
+        <v>2.056616084756469</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45039</v>
       </c>
       <c r="B31">
-        <v>1.074859778858055</v>
+        <v>1.056363915542022</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45040</v>
       </c>
       <c r="B32">
-        <v>2.056260008281158</v>
+        <v>2.056663591514349</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45045</v>
       </c>
       <c r="B33">
-        <v>2.056273349210977</v>
+        <v>2.056707096781929</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45049</v>
       </c>
       <c r="B34">
-        <v>1.056299798181266</v>
+        <v>1.056751071226433</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45051</v>
       </c>
       <c r="B35">
-        <v>2.037657984608196</v>
+        <v>2.056791079826881</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45055</v>
       </c>
       <c r="B36">
-        <v>1.067791740564742</v>
+        <v>1.067886519687506</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45057</v>
       </c>
       <c r="B37">
-        <v>2.049156221456739</v>
+        <v>2.06792404908695</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45060</v>
       </c>
       <c r="B38">
-        <v>1.086071615546922</v>
+        <v>1.067671879872503</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45063</v>
       </c>
       <c r="B39">
-        <v>2.067471844970025</v>
+        <v>2.067971555844829</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45065</v>
       </c>
       <c r="B40">
-        <v>2.067485185899844</v>
+        <v>2.06801506111241</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45066</v>
       </c>
       <c r="B41">
-        <v>1.067511634870133</v>
+        <v>1.068059035556915</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45069</v>
       </c>
       <c r="B42">
-        <v>2.048869821297062</v>
+        <v>2.068099044157362</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45080</v>
       </c>
       <c r="B43">
-        <v>1.079003577253609</v>
+        <v>1.079194484017988</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45081</v>
       </c>
       <c r="B44">
-        <v>2.060368058145605</v>
+        <v>2.079232013417431</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45095</v>
       </c>
       <c r="B45">
-        <v>1.097283452235789</v>
+        <v>1.078979844202984</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45099</v>
       </c>
       <c r="B46">
-        <v>2.078683681658892</v>
+        <v>2.07927952017531</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45105</v>
       </c>
       <c r="B47">
-        <v>2.07869702258871</v>
+        <v>2.079323025442891</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45106</v>
       </c>
       <c r="B48">
-        <v>1.078723471558999</v>
+        <v>1.079366999887396</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45107</v>
       </c>
       <c r="B49">
-        <v>2.060081657985929</v>
+        <v>2.079407008487843</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45108</v>
       </c>
       <c r="B50">
-        <v>1.090215413942476</v>
+        <v>1.090502448348468</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45112</v>
       </c>
       <c r="B51">
-        <v>2.071579894834472</v>
+        <v>2.090539977747912</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45113</v>
       </c>
       <c r="B52">
-        <v>1.108495288924655</v>
+        <v>1.090287808533465</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45126</v>
       </c>
       <c r="B53">
-        <v>2.089895518347759</v>
+        <v>2.090587484505792</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45128</v>
       </c>
       <c r="B54">
-        <v>2.089908859277577</v>
+        <v>2.090630989773372</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45134</v>
       </c>
       <c r="B55">
-        <v>1.089935308247866</v>
+        <v>1.090674964217877</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45138</v>
       </c>
       <c r="B56">
-        <v>2.071293494674796</v>
+        <v>2.090714972818324</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45140</v>
       </c>
       <c r="B57">
-        <v>1.101427250631343</v>
+        <v>1.10181041267895</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45141</v>
       </c>
       <c r="B58">
-        <v>2.082791731523339</v>
+        <v>2.101847942078393</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45143</v>
       </c>
       <c r="B59">
-        <v>1.119707125613522</v>
+        <v>1.101595772863946</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45145</v>
       </c>
       <c r="B60">
-        <v>2.101107355036625</v>
+        <v>2.101895448836272</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45148</v>
       </c>
       <c r="B61">
-        <v>2.101120695966443</v>
+        <v>2.101938954103853</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45155</v>
       </c>
       <c r="B62">
-        <v>1.101147144936732</v>
+        <v>1.101982928548358</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45156</v>
       </c>
       <c r="B63">
-        <v>2.082505331363663</v>
+        <v>2.102022937148805</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45159</v>
       </c>
       <c r="B64">
-        <v>1.112639087320209</v>
+        <v>1.113118377009431</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45160</v>
       </c>
       <c r="B65">
-        <v>2.094003568212206</v>
+        <v>2.113155906408874</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45162</v>
       </c>
       <c r="B66">
-        <v>1.130918962302389</v>
+        <v>1.112903737194427</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45166</v>
       </c>
       <c r="B67">
-        <v>2.112319191725492</v>
+        <v>2.113203413166754</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45177</v>
       </c>
       <c r="B68">
-        <v>2.11233253265531</v>
+        <v>2.113246918434334</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45179</v>
       </c>
       <c r="B69">
-        <v>1.112358981625599</v>
+        <v>1.113290892878839</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45180</v>
       </c>
       <c r="B70">
-        <v>2.093717168052529</v>
+        <v>2.113330901479286</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45183</v>
       </c>
       <c r="B71">
-        <v>1.123850924009076</v>
+        <v>1.124426341339912</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45184</v>
       </c>
       <c r="B72">
-        <v>2.105215404901072</v>
+        <v>2.124463870739355</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45201</v>
       </c>
       <c r="B73">
-        <v>1.142130798991256</v>
+        <v>1.124211701524908</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45205</v>
       </c>
       <c r="B74">
-        <v>2.123531028414359</v>
+        <v>2.124511377497235</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45207</v>
       </c>
       <c r="B75">
-        <v>2.123544369344177</v>
+        <v>2.124554882764815</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45219</v>
       </c>
       <c r="B76">
-        <v>1.123570818314466</v>
+        <v>1.12459885720932</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45222</v>
       </c>
       <c r="B77">
-        <v>2.104929004741396</v>
+        <v>2.124638865809767</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45229</v>
       </c>
       <c r="B78">
-        <v>1.135062760697942</v>
+        <v>1.135734305670393</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45230</v>
       </c>
       <c r="B79">
-        <v>2.116427241589939</v>
+        <v>2.135771835069836</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45234</v>
       </c>
       <c r="B80">
-        <v>1.153342635680123</v>
+        <v>1.135519665855389</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45239</v>
       </c>
       <c r="B81">
-        <v>2.134742865103226</v>
+        <v>2.135819341827716</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45250</v>
       </c>
       <c r="B82">
-        <v>2.134756206033044</v>
+        <v>2.135862847095297</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45252</v>
       </c>
       <c r="B83">
-        <v>1.134782655003333</v>
+        <v>1.135906821539801</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45270</v>
       </c>
       <c r="B84">
-        <v>2.116140841430263</v>
+        <v>2.135946830140248</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45277</v>
       </c>
       <c r="B85">
-        <v>1.146274597386809</v>
+        <v>1.147042270000874</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45283</v>
       </c>
       <c r="B86">
-        <v>2.127639078278805</v>
+        <v>2.147079799400317</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45287</v>
       </c>
       <c r="B87">
-        <v>1.164554472368989</v>
+        <v>1.14682763018587</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45288</v>
       </c>
       <c r="B88">
-        <v>2.145954701792092</v>
+        <v>2.147127306158197</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45290</v>
       </c>
       <c r="B89">
-        <v>2.145968042721911</v>
+        <v>2.147170811425777</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45293</v>
       </c>
       <c r="B90">
-        <v>1.145994491692199</v>
+        <v>1.147214785870282</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45303</v>
       </c>
       <c r="B91">
-        <v>2.127352678119129</v>
+        <v>2.147254794470729</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45305</v>
       </c>
       <c r="B92">
-        <v>1.157486434075676</v>
+        <v>1.158350234331355</v>
       </c>
       <c r="C92">
         <v>1</v>
